--- a/data/income_statement/3digits/total/105_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/105_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>105-Manufacture of dairy products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>105-Manufacture of dairy products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,35 +841,40 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>12384053.63783</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>14185070.64539</v>
+        <v>14233169.42681</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>15944825.91383</v>
+        <v>15984331.65216</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>18963420.14609</v>
+        <v>18978013.61369</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>21565480.73152</v>
+        <v>21589266.07197</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>25242966.50066</v>
+        <v>25258510.16638</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>27756763.05932</v>
+        <v>28070819.69342</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>30834283.09257</v>
@@ -977,37 +883,42 @@
         <v>35044199.65946</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>43555413.30523999</v>
+        <v>43568671.5701</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>53146270.74089</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>53294052.8015</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>64012389.184</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>11728463.55227</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>13630568.66699</v>
+        <v>13677285.02825</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>15156930.49747</v>
+        <v>15195466.18294</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>18018763.75473</v>
+        <v>18032115.0752</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>20514459.32308</v>
+        <v>20536230.00814</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>23852225.10495</v>
+        <v>23867669.62923</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>26383757.4888</v>
+        <v>26693292.43624</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>29039668.93778</v>
@@ -1016,37 +927,42 @@
         <v>33387500.63263</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>41264900.92586</v>
+        <v>41277057.04388001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>50459952.11278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>50607214.55212</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>60458126.747</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>334077.6020499999</v>
+        <v>334077.60205</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>331388.48531</v>
+        <v>332375.73903</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>496710.32666</v>
+        <v>497312.91135</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>540384.82806</v>
+        <v>540864.31502</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>725971.3012800001</v>
+        <v>727507.11645</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>1078984.26114</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1026913.19877</v>
+        <v>1027306.63485</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1224370.04842</v>
@@ -1058,34 +974,39 @@
         <v>1853885.6371</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2046507.53129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2046929.18171</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2741255.469</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>321512.48351</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>223113.49309</v>
+        <v>223508.65953</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>291185.0897</v>
+        <v>291552.55787</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>404271.5633</v>
+        <v>405034.22347</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>325050.10716</v>
+        <v>325528.94738</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>311757.13457</v>
+        <v>311856.27601</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>346092.37175</v>
+        <v>350220.62233</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>570244.1063700001</v>
@@ -1094,115 +1015,130 @@
         <v>355686.95433</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>436626.7422799999</v>
+        <v>437728.88912</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>639811.0968200001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>639909.0676699999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>813006.968</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2111793.60734</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2368872.73502</v>
+        <v>2390223.54751</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2633874.07238</v>
+        <v>2652893.0722</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2891467.87794</v>
+        <v>2893456.50199</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3260262.01283</v>
+        <v>3262713.30397</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3607780.52863</v>
+        <v>3608143.35954</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3979247.81472</v>
+        <v>3987336.01933</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4592563.092719999</v>
+        <v>4592563.09272</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>4790958.50917</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>5530632.17795</v>
+        <v>5530679.73187</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>7150231.02519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>7164941.148990001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>7678996.283</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>351984.75224</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>443489.90407</v>
+        <v>456402.96743</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>476531.85416</v>
+        <v>485256.44783</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>599194.54721</v>
+        <v>600395.0838500001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>677070.7914999999</v>
+        <v>678765.9201799999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>888118.4389200001</v>
+        <v>888475.11986</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>829451.1878200001</v>
+        <v>836295.43424</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>869291.26613</v>
+        <v>869291.2661300001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>974902.14671</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1149225.95409</v>
+        <v>1149256.91654</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1415153.40305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1429039.53897</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1990770.801</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1724981.16057</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1879652.29702</v>
+        <v>1884025.30103</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2073917.72094</v>
+        <v>2077663.11398</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2195757.56311</v>
+        <v>2195880.10217</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2477612.593010001</v>
+        <v>2478122.886750001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2600040.32064</v>
+        <v>2600046.470610001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3016130.70352</v>
+        <v>3016903.4713</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>3565560.86211</v>
@@ -1214,34 +1150,39 @@
         <v>4236470.758470001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5588886.5641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5588886.564099999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5538164.587</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>34827.69452999999</v>
+        <v>34827.69453</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>45730.53392999999</v>
+        <v>49795.27905</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>83424.49728</v>
+        <v>89973.51039</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>96515.76762</v>
+        <v>97181.31597</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>105578.62832</v>
+        <v>105824.49704</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>119621.76907</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>133665.92338</v>
+        <v>134137.11379</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>157710.96448</v>
@@ -1250,37 +1191,42 @@
         <v>162113.94722</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>144935.46539</v>
+        <v>144952.05686</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>146191.05804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>147015.04592</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>150060.895</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>10272260.03049</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>11816197.91037</v>
+        <v>11842945.8793</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>13310951.84145</v>
+        <v>13331438.57996</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>16071952.26815</v>
+        <v>16084557.1117</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>18305218.71869</v>
+        <v>18326552.768</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>21635185.97203</v>
+        <v>21650366.80684</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>23777515.2446</v>
+        <v>24083483.67409</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>26241719.99985</v>
@@ -1289,37 +1235,42 @@
         <v>30253241.15029</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>38024781.12729</v>
+        <v>38037991.83823</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>45996039.7157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>46129111.65251</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>56333392.901</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>7797553.768540001</v>
+        <v>7797553.76854</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>9323412.82401</v>
+        <v>9344691.697360002</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>10475422.25127</v>
+        <v>10495760.85262</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>12694965.38761</v>
+        <v>12704596.46671</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>14438630.79282</v>
+        <v>14452677.19968</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>17492811.93031</v>
+        <v>17506779.42306</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>19102450.08063</v>
+        <v>19344999.29422</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>20981042.77306</v>
@@ -1328,37 +1279,42 @@
         <v>24361333.65475</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>30786343.54613</v>
+        <v>30798558.61144</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>37399730.41062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>37527189.69389</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>46207859.13</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>6421722.38845</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>7919277.423630001</v>
+        <v>7936157.78329</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>8812858.772049999</v>
+        <v>8828862.233719999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>10841658.97226</v>
+        <v>10849924.74634</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>12705807.09529</v>
+        <v>12718634.6615</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>15439297.25846</v>
+        <v>15450291.84012</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>16815804.82353</v>
+        <v>17036256.91458</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>18027814.64986</v>
@@ -1367,37 +1323,42 @@
         <v>20655429.43607</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>26149017.4061</v>
+        <v>26149725.04322</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>31665287.70899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>31773712.88668</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>38333901.368</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1287742.96188</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1340892.23793</v>
+        <v>1344802.88511</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1559796.77555</v>
+        <v>1563000.99175</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1756922.83988</v>
+        <v>1758288.1449</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1615406.17829</v>
+        <v>1616625.01894</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1892124.10013</v>
+        <v>1895067.8001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2110983.93972</v>
+        <v>2124291.89798</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>2732734.74966</v>
@@ -1406,16 +1367,21 @@
         <v>3419275.51535</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4088658.0108</v>
+        <v>4099427.857559999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5225871.84007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5244352.919729999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7028375.51</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>22378.23426</v>
@@ -1433,10 +1399,10 @@
         <v>32225.24727</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>41977.15598999999</v>
+        <v>41980.28084</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>42295.9165</v>
+        <v>42380.36704999999</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>43455.30546</v>
@@ -1445,25 +1411,30 @@
         <v>79033.48322999998</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>149442.56962</v>
+        <v>149609.28562</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>125243.69896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>125795.21132</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>139213.917</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>65710.18394999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>46550.19677999999</v>
+        <v>47038.06329</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>71950.06106000001</v>
+        <v>73080.98454</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>61465.04693</v>
@@ -1472,10 +1443,10 @@
         <v>85192.27197</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>119413.41573</v>
+        <v>119439.502</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>133365.40088</v>
+        <v>142070.11461</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>177038.06808</v>
@@ -1484,37 +1455,42 @@
         <v>207595.2201</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>399225.55961</v>
+        <v>399796.42504</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>383327.1626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>383328.67616</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>706368.335</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2474706.26195</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2492785.08636</v>
+        <v>2498254.18194</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2835529.59018</v>
+        <v>2835677.72734</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3376986.88054</v>
+        <v>3379960.64499</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3866587.92587</v>
+        <v>3873875.568320001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4142374.04172</v>
+        <v>4143587.38378</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4675065.163969999</v>
+        <v>4738484.37987</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>5260677.22679</v>
@@ -1523,55 +1499,65 @@
         <v>5891907.49554</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7238437.581160001</v>
+        <v>7239433.226790001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>8596309.30508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>8601921.958619999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>10125533.771</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1809966.06182</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2064657.33585</v>
+        <v>2075232.99395</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2379529.88275</v>
+        <v>2387068.44381</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2781034.92729</v>
+        <v>2783224.68119</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3098203.820979999</v>
+        <v>3101029.50344</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3532241.65462</v>
+        <v>3532765.23156</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3768260.588329999</v>
+        <v>3795164.4443</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4002749.75087</v>
+        <v>4002751.482700001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>4418641.59342</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5151124.951630001</v>
+        <v>5153887.488779999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5897179.962839999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5904315.84885</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6759077.449</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>39030.18228</v>
@@ -1580,7 +1566,7 @@
         <v>50834.4466</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>63494.44889999999</v>
+        <v>63494.4489</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>90170.96999</v>
@@ -1604,34 +1590,39 @@
         <v>109005.81154</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>114087.38045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>112426.49289</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>97836.20600000001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1293683.69981</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1466865.41317</v>
+        <v>1475080.30173</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1630721.43892</v>
+        <v>1635858.95486</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1926221.64909</v>
+        <v>1927557.32124</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2152666.54077</v>
+        <v>2154934.58509</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2346718.34308</v>
+        <v>2346875.58611</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2541914.88739</v>
+        <v>2556957.84153</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>2683886.0814</v>
@@ -1640,133 +1631,153 @@
         <v>2921712.47989</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3521525.82084</v>
+        <v>3521712.11452</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3904548.39724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3906985.744810001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4324835.982</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>477252.17973</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>546957.4760800001</v>
+        <v>549318.2456200001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>685313.9949299999</v>
+        <v>687715.04005</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>764642.30821</v>
+        <v>765496.3899600001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>819243.6526100001</v>
+        <v>819801.29075</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1050508.82649</v>
+        <v>1050875.1604</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1084993.29636</v>
+        <v>1096854.19819</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1164235.66652</v>
+        <v>1164237.39835</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1373899.28605</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1520593.31925</v>
+        <v>1523169.56272</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1878544.18515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1884903.61115</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2336405.261</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>664740.2001299999</v>
+        <v>664740.2001300001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>428127.75051</v>
+        <v>423021.18799</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>455999.70743</v>
+        <v>448609.28353</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>595951.95325</v>
+        <v>596735.9638</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>768384.1048900001</v>
+        <v>772846.0648800001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>610132.3871000001</v>
+        <v>610822.15222</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>906804.5756399999</v>
+        <v>943319.9355700001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1257927.47592</v>
+        <v>1257925.74409</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1473265.90212</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2087312.62953</v>
+        <v>2085545.73801</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2699129.34224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2697606.10977</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3366456.322</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>332334.80437</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>335575.72023</v>
+        <v>335878.22946</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>353411.3785900001</v>
+        <v>353550.98692</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>330567.7087600001</v>
+        <v>330605.79637</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>368133.88728</v>
+        <v>368402.10007</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1186399.3187</v>
+        <v>1186422.15334</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>599528.8060200001</v>
+        <v>616691.65012</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>707169.433</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>681174.8302800001</v>
+        <v>681174.83028</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1393471.85115</v>
+        <v>1394518.28546</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1105717.54069</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1106098.76604</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1434068.338</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>9617.64796</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>62601.5564</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>6908.756</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>908.04</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>12563.31557</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>14841.88999</v>
+        <v>14843.89897</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>13718.73859</v>
+        <v>13719.51595</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>11808.21955</v>
+        <v>11808.56507</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>11092.95891</v>
+        <v>11196.18051</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>16963.85006</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>32474.05284</v>
+        <v>32917.34001</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>40922.88909</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>57808.70467</v>
+        <v>57808.70466999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>96723.68298</v>
+        <v>97088.51122999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>126919.98969</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>127158.06043</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>144085.455</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>38.78666</v>
@@ -1918,20 +1944,25 @@
       <c r="M29" s="48" t="n">
         <v>21498.79963</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>22836.49</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2699.50393</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>4295.339660000001</v>
+        <v>4295.33966</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>18498.34796</v>
+        <v>18560.20443000001</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>3692.46125</v>
@@ -1957,26 +1988,31 @@
       <c r="M30" s="48" t="n">
         <v>8131.66845</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>3599.227</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>3850.325850000001</v>
+        <v>3850.32585</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>920.9146699999999</v>
+        <v>920.9146700000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>569.07987</v>
+        <v>570.83447</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>3048.03034</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>9310.98194</v>
+        <v>9311.0766</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>37595.48316999999</v>
@@ -1994,52 +2030,62 @@
         <v>4256.15148</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>34251.49858</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>34251.49858000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>103147.069</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>174537.57136</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>154596.65074</v>
+        <v>154896.19399</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>131122.87241</v>
+        <v>131169.6292</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>118895.25414</v>
+        <v>118932.99623</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>85035.29721999999</v>
+        <v>85200.19375000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>835695.2160500002</v>
+        <v>835697.9352700001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>260456.95543</v>
+        <v>265979.62073</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>336262.8620200001</v>
+        <v>336262.86202</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>200127.89202</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>810963.95068</v>
+        <v>810964.62553</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>394853.06382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>394916.10904</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>672037.835</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>3183.53532</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>3992.20164</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2896.296</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>155.84436</v>
@@ -2113,20 +2164,25 @@
       <c r="M34" s="48" t="n">
         <v>98.56492</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>491.401</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>125688.27336</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>140058.75629</v>
+        <v>140059.71329</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>169428.39668</v>
+        <v>169456.85979</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>169541.59369</v>
@@ -2135,10 +2191,10 @@
         <v>237154.84664</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>269942.4639</v>
+        <v>269962.57932</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>275689.14996</v>
+        <v>286886.04159</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>278999.12596</v>
@@ -2147,37 +2203,42 @@
         <v>368064.2209199999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>448470.49501</v>
+        <v>449151.42622</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>453370.19756</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>453450.30695</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>477157.769</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>184890.22998</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>176270.96528</v>
+        <v>178016.60271</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>157745.23967</v>
+        <v>158891.29289</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>140970.85475</v>
+        <v>140975.23427</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>262604.88266</v>
+        <v>262705.99928</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>310284.2319899999</v>
+        <v>310385.08204</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>446935.73142</v>
+        <v>460310.10704</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>472487.9748</v>
@@ -2186,16 +2247,21 @@
         <v>534331.79299</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1386113.01155</v>
+        <v>1386619.38903</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>928832.76618</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>928857.2231700002</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1304096.108</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>206.10704</v>
@@ -2204,16 +2270,16 @@
         <v>412.44011</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>721.6301799999999</v>
+        <v>721.63018</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>857.2526599999999</v>
+        <v>857.25266</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>781.45547</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>681.31664</v>
+        <v>681.3166399999999</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>374.49524</v>
@@ -2228,25 +2294,30 @@
         <v>710.07641</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1240.2949</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1191.31011</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1484.839</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>21411.17964</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>12278.6534</v>
+        <v>12912.80311</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>8197.54126</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>12034.26781</v>
+        <v>12034.51781</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>15938.74434</v>
@@ -2255,13 +2326,13 @@
         <v>25858.08732</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>24297.78523</v>
+        <v>24855.16312</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>31789.545</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>48814.94266</v>
+        <v>48814.94265999999</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>27033.0855</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>47007.47306</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>32948.484</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>108.74835</v>
@@ -2285,13 +2361,13 @@
         <v>165.13609</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>991.5531600000002</v>
+        <v>991.55316</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>136.85145</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>24786.12995</v>
+        <v>24886.87064</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>50.39734</v>
@@ -2303,37 +2379,42 @@
         <v>80.95771999999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>84.55767000000002</v>
+        <v>90.91361000000001</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>1037.79511</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>6255.518</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>122942.59928</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>104747.94698</v>
+        <v>104975.87542</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>102870.51519</v>
+        <v>102999.52454</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>70385.79441</v>
+        <v>70389.92393</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>178492.26546</v>
+        <v>178593.38208</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>156719.20489</v>
+        <v>156719.31425</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>317561.684</v>
+        <v>322118.1856500001</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>278381.69485</v>
@@ -2342,16 +2423,21 @@
         <v>303503.5374</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1139477.87823</v>
+        <v>1139513.06628</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>553901.99759</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>553915.72665</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>906395.986</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1760.62929</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>3603.16088</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>3352.835</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>171.08919</v>
@@ -2425,32 +2516,37 @@
       <c r="M42" s="48" t="n">
         <v>100.35104</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>319.902</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>38289.87718999999</v>
+        <v>38289.87719000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>58643.1701</v>
+        <v>59526.72938</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>44992.76657</v>
+        <v>46009.81044</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>56384.10951</v>
+        <v>56384.10950999999</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>64570.28986</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>96848.56311999999</v>
+        <v>96848.56312000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>102519.56193</v>
+        <v>110780.05801</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>160237.89178</v>
@@ -2459,37 +2555,42 @@
         <v>178226.49578</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>211488.24979</v>
+        <v>211953.08328</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>321941.6936</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>322001.40632</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>353338.544</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>195127.49561</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>193475.89051</v>
+        <v>195237.36232</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>300941.04315</v>
+        <v>304034.00378</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>277430.95121</v>
+        <v>277586.01363</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>435018.5423</v>
+        <v>435383.03792</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1132718.41314</v>
+        <v>1133049.92873</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>640393.68696</v>
+        <v>643760.59886</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>686057.59454</v>
@@ -2498,37 +2599,42 @@
         <v>823869.75347</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1044548.79623</v>
+        <v>1045431.09552</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>968940.72984</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>971976.61651</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>903159.067</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>169409.75981</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>162152.02693</v>
+        <v>163913.49874</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>260350.17383</v>
+        <v>263443.13446</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>263633.77027</v>
+        <v>263788.83269</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>409752.12319</v>
+        <v>410116.6188100001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1108822.36131</v>
+        <v>1109153.8769</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>607868.0295600001</v>
+        <v>611234.9414599999</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>655747.79862</v>
@@ -2537,16 +2643,21 @@
         <v>775658.4802100001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>994402.7159</v>
+        <v>995264.9891900001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>902024.76084</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>905060.64751</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>809292.389</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>25717.7358</v>
@@ -2573,79 +2684,89 @@
         <v>30309.79592</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>48211.27325999999</v>
+        <v>48211.27326</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>50146.08033</v>
+        <v>50166.10633</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>66915.969</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>93866.678</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>617057.27891</v>
+        <v>617057.2789099999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>393956.61495</v>
+        <v>385645.45242</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>350724.8031999999</v>
+        <v>339234.97378</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>508117.8560499999</v>
+        <v>508780.51227</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>438894.5672100001</v>
+        <v>443159.12775</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>353529.06067</v>
+        <v>353809.29479</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>419003.96328</v>
+        <v>455940.87979</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>806551.3395799999</v>
+        <v>806549.60775</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>796239.1859400001</v>
+        <v>796239.18594</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1050122.6729</v>
+        <v>1048013.53892</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1907073.38691</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1902871.03613</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2593269.485</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>42321.26886</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>49951.98497</v>
+        <v>50207.85673000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>49652.29286</v>
+        <v>50659.94291</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>86847.37685999999</v>
+        <v>86994.23628999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>139366.78209</v>
+        <v>139435.81816</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>309707.36944</v>
+        <v>309720.9197</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>128339.837</v>
+        <v>130946.63667</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>138936.96891</v>
@@ -2654,34 +2775,39 @@
         <v>194897.94495</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>380028.24784</v>
+        <v>380207.6874</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>323269.24151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>329478.29949</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>349767.167</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>5684.04621</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>14260.85548</v>
+        <v>14306.17959</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>10196.38279</v>
+        <v>10413.43245</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>6247.796179999999</v>
+        <v>6321.804010000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>19311.55832</v>
+        <v>19331.24993</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>7604.283840000001</v>
+        <v>7604.28384</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>12860.64074</v>
@@ -2698,32 +2824,37 @@
       <c r="M49" s="48" t="n">
         <v>45974.29695</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>69860.656</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>36637.22265</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>35691.12948999999</v>
+        <v>35901.67714</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>39455.91007000001</v>
+        <v>40246.51046</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>80599.58068000001</v>
+        <v>80672.43228000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>120055.22377</v>
+        <v>120104.56823</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>302103.0856</v>
+        <v>302116.63586</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>115479.19626</v>
+        <v>118085.99593</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>136612.6785</v>
@@ -2732,37 +2863,42 @@
         <v>159233.45644</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>377382.6351</v>
+        <v>377562.07466</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>277294.94456</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>283504.00254</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>279906.511</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>77479.40007999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>112572.62825</v>
+        <v>114794.3156</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>144332.62508</v>
+        <v>145386.03514</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>213999.28692</v>
+        <v>214354.03114</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>152054.98751</v>
+        <v>152151.50642</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>222297.3665</v>
+        <v>222306.385</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>171039.29737</v>
+        <v>174025.67693</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>224907.55641</v>
@@ -2771,115 +2907,130 @@
         <v>216022.42943</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>413258.21647</v>
+        <v>413616.4042999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>353477.9969300001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>357178.00501</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>810131.215</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>19335.0611</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>13948.66356</v>
+        <v>13978.1751</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>23440.70732</v>
+        <v>23485.56717</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>11085.72345</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>18016.66831</v>
+        <v>18038.77025</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>23451.90388</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>22079.43221</v>
+        <v>23159.98023</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>38090.63814000001</v>
+        <v>38090.63814</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>31346.67325</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>40843.52979000001</v>
+        <v>41073.36116</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>63212.1998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>63852.80794</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>56696.014</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>22265.06122</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>56830.69854</v>
+        <v>58514.85965999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>44290.28442</v>
+        <v>44758.19529</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>35571.79795</v>
+        <v>35883.57759</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>38699.74637</v>
+        <v>38771.71146</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>42947.83492</v>
+        <v>42947.83491999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>45525.11459</v>
+        <v>45662.48259000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>59031.41366000001</v>
+        <v>59031.41366</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>55726.46216</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>75126.98672000002</v>
+        <v>75132.18524000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>114072.16495</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>114073.50415</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>515212.555</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>35879.27776</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>41793.26615</v>
+        <v>42301.28084000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>76601.63334</v>
+        <v>77142.27267999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>167341.76552</v>
+        <v>167384.7301</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>95338.57283000002</v>
+        <v>95341.02471000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>155897.6277</v>
+        <v>155906.6462</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>103434.75057</v>
+        <v>105203.21411</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>127785.50461</v>
@@ -2888,64 +3039,74 @@
         <v>128949.29402</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>297287.69996</v>
+        <v>297410.8579</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>176193.63218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>179251.69292</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>238222.646</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>581899.1476899998</v>
+        <v>581899.1476899999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>331335.97167</v>
+        <v>321058.99355</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>256044.47098</v>
+        <v>244508.88155</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>380965.94599</v>
+        <v>381420.7174199999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>426206.36179</v>
+        <v>430443.43949</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>440939.06361</v>
+        <v>441223.82949</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>376304.50291</v>
+        <v>412861.83953</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>720580.7520800001</v>
+        <v>720579.0202499999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>775114.70146</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1016892.70427</v>
+        <v>1014604.82202</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1876864.63149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1875171.33061</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2132905.437</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>110470.84355</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>83187.62105999999</v>
+        <v>83192.04947</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>78266.79315000001</v>
+        <v>78275.47349999999</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>115050.59285</v>
@@ -2954,10 +3115,10 @@
         <v>77198.15970999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>78828.7366</v>
+        <v>78828.73659999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>70198.06259999999</v>
+        <v>77362.50259</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>106864.4787</v>
@@ -2966,52 +3127,60 @@
         <v>73671.9572</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>196039.19501</v>
+        <v>196151.92722</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>132277.46807</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>132391.3348</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>258266.223</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>471428.30414</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>248148.35061</v>
+        <v>237866.94408</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>177777.67783</v>
+        <v>166233.40805</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>265915.35314</v>
+        <v>266370.12457</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>349008.20208</v>
+        <v>353245.27978</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>362110.32701</v>
+        <v>362395.09289</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>306106.44031</v>
+        <v>335499.33694</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>613716.2733800001</v>
+        <v>613714.5415500001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>701442.7442599999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>820853.50926</v>
+        <v>818452.8948</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1744587.16342</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1742779.99581</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1874639.214</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>954</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1238</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1127</v>
+        <v>1268</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1324</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>